--- a/data/trans_bre/POLIPATOLOGIA_Lim_2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_2-Clase-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,55 +539,43 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
       <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,40 +604,30 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>10,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,22</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,4%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>12,09%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>77,78%</t>
         </is>
@@ -668,42 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,01; 5,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 5,22</t>
+          <t>-3,87; 6,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 6,56</t>
+          <t>5,7; 14,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 14,58</t>
+          <t>-35,43; 56,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,69; 63,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,26; 53,73</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-23,23; 66,28</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>36,84; 129,27</t>
+          <t>36,26; 128,12</t>
         </is>
       </c>
     </row>
@@ -720,40 +684,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>11,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,46</t>
+          <t>41,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>41,4%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>21,81%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>74,49%</t>
         </is>
@@ -768,42 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,0; 11,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 11,62</t>
+          <t>-2,11; 7,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 7,92</t>
+          <t>6,26; 16,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,51; 16,28</t>
+          <t>-0,57; 103,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,37; 80,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 107,32</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-18,1; 82,58</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>34,55; 121,25</t>
+          <t>34,5; 122,07</t>
         </is>
       </c>
     </row>
@@ -820,40 +764,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>15,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,38</t>
+          <t>27,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,42</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>28,77%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>94,49%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>228,17%</t>
         </is>
@@ -868,42 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 13,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 14,03</t>
+          <t>7,25; 24,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,06; 23,84</t>
+          <t>18,66; 40,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,89; 40,0</t>
+          <t>-1,78; 64,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,84; 159,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 68,86</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>43,6; 163,62</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>88,06; 805,55</t>
+          <t>92,2; 804,81</t>
         </is>
       </c>
     </row>
@@ -920,40 +844,30 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,79%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>18,08%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>1,62%</t>
         </is>
@@ -968,42 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 5,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,1</t>
+          <t>-0,86; 6,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 6,62</t>
+          <t>-11,21; 7,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 7,58</t>
+          <t>-11,96; 27,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,33; 46,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 28,64</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; 43,56</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-49,84; 35,22</t>
+          <t>-49,18; 35,05</t>
         </is>
       </c>
     </row>
@@ -1020,40 +924,30 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,41</t>
+          <t>13,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,73</t>
+          <t>12,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,58</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>99,4%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>67,91%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>52,84%</t>
         </is>
@@ -1068,42 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,55; 23,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,17; 23,09</t>
+          <t>9,42; 18,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,3; 18,91</t>
+          <t>0,84; 18,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 19,02</t>
+          <t>62,25; 146,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,77; 102,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>63,11; 146,86</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>40,5; 105,93</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>14,61; 86,94</t>
+          <t>9,98; 85,87</t>
         </is>
       </c>
     </row>
@@ -1120,40 +1004,30 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,68</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>34,68</t>
+          <t>28,56</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,56</t>
+          <t>26,52</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,52</t>
+          <t>1132,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1017,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1132,06%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1017,88%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>271,36%</t>
         </is>
@@ -1168,42 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,77; 38,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,33; 38,3</t>
+          <t>24,74; 31,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,77; 31,81</t>
+          <t>18,11; 32,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,9; 32,35</t>
+          <t>385,84; 3137,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>486,48; 2279,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>475,84; 3179,56</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>467,6; 2328,22</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>110,37; 615,82</t>
+          <t>97,6; 550,36</t>
         </is>
       </c>
     </row>
@@ -1220,40 +1084,30 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,23</t>
+          <t>10,69</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,69</t>
+          <t>12,82</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,82</t>
+          <t>72,07%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,45%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>72,07%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>71,45%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>74,24%</t>
         </is>
@@ -1268,42 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,25; 14,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,14; 14,36</t>
+          <t>8,75; 12,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,63; 12,55</t>
+          <t>7,22; 16,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,95; 16,65</t>
+          <t>56,56; 89,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,33; 88,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>56,53; 90,11</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>54,78; 88,7</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>46,54; 116,11</t>
+          <t>46,26; 122,55</t>
         </is>
       </c>
     </row>
@@ -1316,13 +1160,13 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/POLIPATOLOGIA_Lim_2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_2-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
